--- a/fault/media/example/Saadat9.8.xlsx
+++ b/fault/media/example/Saadat9.8.xlsx
@@ -935,7 +935,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1070,15 +1070,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1094,8 +1094,11 @@
       <c r="E1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1111,8 +1114,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1128,8 +1134,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1145,8 +1154,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1162,8 +1174,11 @@
       <c r="E5">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1179,8 +1194,11 @@
       <c r="E6">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1196,8 +1214,11 @@
       <c r="E7">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1213,8 +1234,11 @@
       <c r="E8">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1230,8 +1254,11 @@
       <c r="E9">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1247,8 +1274,11 @@
       <c r="E10">
         <v>1.6000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1264,8 +1294,11 @@
       <c r="E11">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1281,8 +1314,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1298,8 +1334,11 @@
       <c r="E13">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1315,8 +1354,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1332,8 +1374,11 @@
       <c r="E15">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1365,6 +1413,9 @@
       </c>
       <c r="E17">
         <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
